--- a/qualtcom/Organizacional/Medicion y Monitoreo/Acciones_Correctivas.xlsx
+++ b/qualtcom/Organizacional/Medicion y Monitoreo/Acciones_Correctivas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Acciones correctivas</t>
   </si>
@@ -37,18 +37,12 @@
     <t>Fecha Real de Cierre</t>
   </si>
   <si>
-    <t>Fecha de Deteccion</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Por falta de clientes no existen horas a registrar en la entrega de servicio.</t>
   </si>
   <si>
-    <t>Se comenzara con la busqueda de clientes a quienes se les brinden el servicio generado.</t>
-  </si>
-  <si>
     <t>Fidel Reyna</t>
   </si>
   <si>
@@ -58,45 +52,24 @@
     <t>Jovanny zepeda</t>
   </si>
   <si>
-    <t>Se genera respado la semana entrante</t>
-  </si>
-  <si>
     <t>Se omite un respaldo de una semana</t>
   </si>
   <si>
-    <t>Por omicion a la generacion de encuestas de satisfaccion existen resultados invalidos en la seccion de satisfaccion</t>
-  </si>
-  <si>
-    <t>Generar lo mas pronto posible las encuestas de satisfaccion</t>
-  </si>
-  <si>
     <t>Jovanny Zepeda</t>
   </si>
   <si>
-    <t>Se pierde el orden correcto de los archivos en git hub lo cual genera confusion al momento de leerlo</t>
-  </si>
-  <si>
     <t>Se recrea el repositorio dando orden correcto a los archivos que los usuarios subieron de forma continua</t>
   </si>
   <si>
-    <t>Por lluvia excesiva se colapsa parte de la estructura y crea un filtro de agua el cual dana al servidor que mantenia el servicio de tickets activo</t>
-  </si>
-  <si>
     <t>Se reemplaza servicio en un servidor externo para evitar perdidas similares posteriormente</t>
   </si>
   <si>
     <t>Tras la perdida del servidor se tiene deshabilitado el servicio de tickets de forma temporal</t>
   </si>
   <si>
-    <t>Se genera registro de problemas en una bitacora sobre excel hasta la sustitucion del mismo</t>
-  </si>
-  <si>
     <t>Por siniestro causado por el agua temporalmente se deniega el acceso al mecanismo de respaldo hasta la estabilidad de; internet</t>
   </si>
   <si>
-    <t>Se solicita a los usuarios qeu reciben el servicio mantener la informacion en la carpeta principal para respaldarla en lo mas breve posible hasta la solucion del servicio</t>
-  </si>
-  <si>
     <t>Por inconvenientes de tiempo un integrante de trabajo se retira temporalmente del equipo de trabajo</t>
   </si>
   <si>
@@ -106,7 +79,64 @@
     <t>No todos los mantenimientos planeados fueron ejecutados</t>
   </si>
   <si>
-    <t>Se notifica a usuarios que en caso de no poder generar un respaldo o mantenimiento posible por no localizarlos en el area de trabajo este sera realizado en la siguiente interaccion que pueda ser localizado</t>
+    <t>Se presenta un problema de acceso al mecanismo de respaldo</t>
+  </si>
+  <si>
+    <t>Se genera una desviación negativa por trabajo mayor al planeado</t>
+  </si>
+  <si>
+    <t>Fecha de Detección</t>
+  </si>
+  <si>
+    <t>Se comenzara con la búsqueda de clientes a quienes se les brinden el servicio generado.</t>
+  </si>
+  <si>
+    <t>Se notifica a usuarios que en caso de no poder generar un respaldo o mantenimiento posible por no localizarlos en el área de trabajo este será realizado en la siguiente interacción que pueda ser localizado</t>
+  </si>
+  <si>
+    <t>Por omisión a la generación de encuestas de satisfacción existen resultados inválidos en la sección de satisfacción</t>
+  </si>
+  <si>
+    <t>Generar lo mas pronto posible las encuestas de satisfacción</t>
+  </si>
+  <si>
+    <t>Se genera respaldo la semana entrante</t>
+  </si>
+  <si>
+    <t>Se pierde el orden correcto de los archivos en git hub lo cual genera confusión al momento de leerlo</t>
+  </si>
+  <si>
+    <t>Por lluvia excesiva se colapsa parte de la estructura y crea un filtro de agua el cual daña al servidor que mantenía el servicio de tickets activo</t>
+  </si>
+  <si>
+    <t>Se genera registro de problemas en una bitácora sobre Excel hasta la sustitución del mismo</t>
+  </si>
+  <si>
+    <t>Se solicita a los usuarios que reciben el servicio mantener la información en la carpeta principal para respaldarla en lo mas breve posible hasta la solución del servicio</t>
+  </si>
+  <si>
+    <t>Se notifica a usuarios que no fue posible generar respaldo por problema y que sera solucionado en cuanto este listo el acceso</t>
+  </si>
+  <si>
+    <t>Se notifica que ocurre por un mes que contiene una semana mas a las previstas por mes</t>
+  </si>
+  <si>
+    <t>Se muestra una desviacion elevada en esfuerzo por parte de entrega de servicio correctivo, mismo dato afecta a costos de entrega</t>
+  </si>
+  <si>
+    <t>Se menciona que en casos como esos depende de la cantidad de problemas que presentan los clientes y puede mostrarse muy variado.</t>
+  </si>
+  <si>
+    <t>Se presenta un resultado indeseado en calidad organizacional tras la evaluacion realizada.</t>
+  </si>
+  <si>
+    <t>Generar correccion de documentos acorde a lo solicitado en acciones correctivas de dicho documento.</t>
+  </si>
+  <si>
+    <t>Mayra Tejeda</t>
+  </si>
+  <si>
+    <t>Abierto</t>
   </si>
 </sst>
 </file>
@@ -233,14 +263,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -565,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -586,34 +616,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="C4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>1</v>
@@ -622,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>2</v>
@@ -641,17 +671,17 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5">
         <v>42062</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="6">
         <v>42094</v>
@@ -660,24 +690,24 @@
         <v>42124</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>29</v>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5">
         <v>42094</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H6" s="6">
         <v>42124</v>
@@ -686,24 +716,24 @@
         <v>42124</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>16</v>
+      <c r="D7" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F7" s="6">
         <v>42094</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H7" s="6">
         <v>42124</v>
@@ -712,7 +742,7 @@
         <v>42124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
@@ -720,16 +750,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6">
         <v>42124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="6">
         <v>42144</v>
@@ -738,7 +768,7 @@
         <v>42144</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
@@ -746,16 +776,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F9" s="6">
         <v>42157</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H9" s="6">
         <v>42160</v>
@@ -764,7 +794,7 @@
         <v>42160</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="114" x14ac:dyDescent="0.2">
@@ -772,16 +802,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F10" s="6">
         <v>42167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H10" s="6">
         <v>42170</v>
@@ -790,7 +820,7 @@
         <v>42170</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
@@ -798,16 +828,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6">
         <v>42167</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H11" s="6">
         <v>42167</v>
@@ -816,7 +846,7 @@
         <v>42533</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="114" x14ac:dyDescent="0.2">
@@ -824,16 +854,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6">
         <v>42167</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H12" s="6">
         <v>42177</v>
@@ -842,7 +872,7 @@
         <v>42177</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
@@ -850,16 +880,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F13" s="6">
         <v>42179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13" s="6">
         <v>42180</v>
@@ -868,48 +898,110 @@
         <v>42181</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6">
+        <v>42213</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6">
+        <v>42213</v>
+      </c>
+      <c r="I14" s="6">
+        <v>42213</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="C15" s="7">
+        <v>11</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6">
+        <v>42215</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6">
+        <v>42215</v>
+      </c>
+      <c r="I15" s="6">
+        <v>42215</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="C16" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="D16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6">
+        <v>42215</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6">
+        <v>42215</v>
+      </c>
+      <c r="I16" s="6">
+        <v>42215</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="C17" s="7">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="6">
+        <v>42215</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="6">
+        <v>42246</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
